--- a/biology/Zoologie/Grand_Tétras_en_France/Grand_Tétras_en_France.xlsx
+++ b/biology/Zoologie/Grand_Tétras_en_France/Grand_Tétras_en_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grand_T%C3%A9tras_en_France</t>
+          <t>Grand_Tétras_en_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Grand Tétras en France (Tetrao urogallus) se répartit dans les massifs montagneux des Cévennes, des Vosges, du Jura et surtout des Pyrénées. Sa population dans ce pays est caractérisée par des clades ou sous-espèces propres, qu'elle partage en partie avec celle d'Espagne et, à un degré moindre, d'autres pays d'Europe. 
 Le Grand Tétras est un gros oiseau (Gallinacée) qui vit dans les forêts des zones de climat tempéré froid d'Eurasie. Assez fréquent, il occupe une large aire de répartition allant de la Norvège à l'Est de la Sibérie. L'UICN le classe en « préoccupation mineure » au niveau mondial.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grand_T%C3%A9tras_en_France</t>
+          <t>Grand_Tétras_en_France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Grand Tétras est traditionnellement partagé en 12 sous-espèces. Une analyse génétique fine permet de les regrouper en deux clades : un clade A regroupant toutes les populations d'Eurasie allant de l'Est de la France (sous-espèce Tetrao urogallus major)  jusqu'à la Sibérie et un clade B. Le clade B comprend notamment la sous-espèce T. u. aquitanicus qui vit dans les Pyrénées. Ainsi la France héberge deux sous-espèces, l'une reliée au reste de la population mondiale, l'autre, pyrénéenne, étant plus originale.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grand_T%C3%A9tras_en_France</t>
+          <t>Grand_Tétras_en_France</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Statut et protection</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au niveau mondial et même européen, l'espèce n'est pas en danger. En France, elle est classée vulnérable (VU) sur la liste rouge des oiseaux nicheurs de France métropolitaine selon le critère C1 : « déclin continu ». Au niveau régional, elle est en danger (code EN) sur la liste rouge régionale oiseaux nicheurs Languedoc-Roussillon (région intégrée depuis 2015 dans l'Occitanie) selon le critère C1 couplé à un faible nombre d'individus matures, en danger critique (CR) dans les anciennes régions de Franche-Comté (critère C1) et Alsace (critère D1 : population petite ou restreinte) et disparue (RE) d'Auvergne[1].
-Elle est par ailleurs déterminante dans un certain nombre de ZNIEFF[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au niveau mondial et même européen, l'espèce n'est pas en danger. En France, elle est classée vulnérable (VU) sur la liste rouge des oiseaux nicheurs de France métropolitaine selon le critère C1 : « déclin continu ». Au niveau régional, elle est en danger (code EN) sur la liste rouge régionale oiseaux nicheurs Languedoc-Roussillon (région intégrée depuis 2015 dans l'Occitanie) selon le critère C1 couplé à un faible nombre d'individus matures, en danger critique (CR) dans les anciennes régions de Franche-Comté (critère C1) et Alsace (critère D1 : population petite ou restreinte) et disparue (RE) d'Auvergne.
+Elle est par ailleurs déterminante dans un certain nombre de ZNIEFF.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grand_T%C3%A9tras_en_France</t>
+          <t>Grand_Tétras_en_France</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,14 +594,87 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pyrénées
-La population pyrénéenne de Grand Tétras est la plus importante en quantité avec environ 90 % des individus vivant sur le territoire national. Elle s'étend sur une grande partie du massif, de la Soule au massif du Canigou. Isolée, elle est constituée exclusivement de la sous-espèce Tetrao urogallus aquitanicus. Les échanges entre les individus des différents versants des Pyrénées existent mais sont rares. Ils suivent les points de passages relativement peu élevés en altitude (Cerdagne, Val d'Aran, cols...).
-Cévennes
-Jura
-Vosges
-Le massif du Grand Ventron est l'un des derniers refuges du Grand Tétras. L'espèce est toutefois en déclin et un renforcement a été décidé par la capture de quelques dizaunes d'individus originaires de Norvège. La pertinence de cette opération est toutefois contestée par des associations environnementales[2].
-Alpes
-Le Grand Tétras est considéré éteint dans les Alpes depuis l'an 2000. Depuis, quelques individus ont été observés, sans doute en provenance du Jura.
+          <t>Pyrénées</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La population pyrénéenne de Grand Tétras est la plus importante en quantité avec environ 90 % des individus vivant sur le territoire national. Elle s'étend sur une grande partie du massif, de la Soule au massif du Canigou. Isolée, elle est constituée exclusivement de la sous-espèce Tetrao urogallus aquitanicus. Les échanges entre les individus des différents versants des Pyrénées existent mais sont rares. Ils suivent les points de passages relativement peu élevés en altitude (Cerdagne, Val d'Aran, cols...).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Grand_Tétras_en_France</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_T%C3%A9tras_en_France</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Vosges</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le massif du Grand Ventron est l'un des derniers refuges du Grand Tétras. L'espèce est toutefois en déclin et un renforcement a été décidé par la capture de quelques dizaunes d'individus originaires de Norvège. La pertinence de cette opération est toutefois contestée par des associations environnementales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Grand_Tétras_en_France</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_T%C3%A9tras_en_France</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Alpes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Grand Tétras est considéré éteint dans les Alpes depuis l'an 2000. Depuis, quelques individus ont été observés, sans doute en provenance du Jura.
 </t>
         </is>
       </c>
